--- a/sourceData/penduduk.xlsx
+++ b/sourceData/penduduk.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\GitHub\gemastik_time_series\sourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5BCA3C5-B6E3-48B3-8A23-416F6CD1AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F31D1-792A-4CDC-BAFD-77101DFF9F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>LAMPUNG</t>
   </si>
   <si>
-    <t>KEP. BANGKA BELITUNG</t>
-  </si>
-  <si>
-    <t>KEP. RIAU</t>
-  </si>
-  <si>
     <t>DKI JAKARTA</t>
   </si>
   <si>
@@ -125,12 +119,18 @@
   </si>
   <si>
     <t>PAPUA</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,20 +1009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="1" sqref="B1:C35 E11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <v>2060.1</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>9176.6</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>10680</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
         <v>49405.8</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>12252</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>37032.400000000001</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>3761.9</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>41150</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <v>5541.4</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
         <v>2741.1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>4182.1000000000004</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
         <v>3859.8</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4">
         <v>727.8</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>2659.5</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4">
         <v>1192.7</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5">
         <v>3066.1</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4">
         <v>9225.7999999999993</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>1458.6</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4">
         <v>2701.7</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>4415.1000000000004</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
         <v>5473.7</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>5466.3</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
         <v>1881.7</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5">
         <v>1319.3</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4">
         <v>1183.3</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
         <v>4418.6000000000004</v>
@@ -2049,7 +2049,6 @@
     <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
